--- a/Equinor mapping guidelines_BIS_Billing30_rev.04.xlsx
+++ b/Equinor mapping guidelines_BIS_Billing30_rev.04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GBS\IT\ecommerce\1-Supplier Onboarding, EHF, PEPPOL\9 Generic Statoil requirements and examples\EHF mapping guidelines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisak\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A4D1D7-4853-4036-8871-C20A12665222}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8BBA61-95F1-429D-A780-5E8EC45416DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F2764DF-5330-4F17-AD42-B8F8A5EC8524}"/>
+    <workbookView xWindow="1770" yWindow="2235" windowWidth="21600" windowHeight="11265" xr2:uid="{7F2764DF-5330-4F17-AD42-B8F8A5EC8524}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice for Service" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="417">
   <si>
     <t>Header</t>
   </si>
@@ -14526,6 +14526,12 @@
       </rPr>
       <t>&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>Use prefix "WO:" for work order</t>
+  </si>
+  <si>
+    <t>Use prefix "N:" for network</t>
   </si>
 </sst>
 </file>
@@ -15490,7 +15496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE562512-6ECC-4A6E-BEB2-6066DE115FF4}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18430,7 +18438,7 @@
         <v>228</v>
       </c>
       <c r="H216" s="12" t="s">
-        <v>229</v>
+        <v>416</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.2">
@@ -18444,7 +18452,7 @@
         <v>231</v>
       </c>
       <c r="H217" s="12" t="s">
-        <v>232</v>
+        <v>415</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.2">
@@ -27130,186 +27138,17 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>101</SequenceNumber>
-    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>102</SequenceNumber>
-    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>103</SequenceNumber>
-    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>104</SequenceNumber>
-    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>105</SequenceNumber>
-    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>PolicyForHeaderAndFooter</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Ncas.Collaboration.CustomPolicy, Version=1.0.0.0, Culture=neutral, PublicKeyToken=adb52bf0495cf7ab</Assembly>
-    <Class> Ncas.Collaboration.CustomPolicy.CheckInPolicy.ApplyPolicyToDocument</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>PolicyForHeaderAndFooter</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Ncas.Collaboration.CustomPolicy, Version=1.0.0.0, Culture=neutral, PublicKeyToken=adb52bf0495cf7ab</Assembly>
-    <Class> Ncas.Collaboration.CustomPolicy.CheckInPolicy.ApplyPolicyToDocument</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ob1fdaeeda6c434590f2918ca466ab10 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ob1fdaeeda6c434590f2918ca466ab10>
-    <n2a89e95a29b415a827aea651eb32be1 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n2a89e95a29b415a827aea651eb32be1>
-    <TaxCatchAll xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>22</Value>
-    </TaxCatchAll>
-    <ProcessTaxHTField0 xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Information technology (IT)</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6a6ed3c2-b324-4ded-87ce-463728624a83</TermId>
-        </TermInfo>
-      </Terms>
-    </ProcessTaxHTField0>
-    <i2fbc63eca174c1499eb29b04cf76753 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </i2fbc63eca174c1499eb29b04cf76753>
-    <e5947b8adb9444e9a52e245203a9e01a xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e5947b8adb9444e9a52e245203a9e01a>
-    <m3f60fa83b54468da996bbc7475e2e04 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m3f60fa83b54468da996bbc7475e2e04>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <OrganisationTaxHTField0 xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CFO GBS IT ES SUPPLY CHAIN PROCUREMENT (IT ES SCP)</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0841e8c2-53a9-4d81-8b39-68d7dd3a4d6e</TermId>
-        </TermInfo>
-      </Terms>
-    </OrganisationTaxHTField0>
-    <SecurityClassificationTaxHTField0 xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Open</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">61f5f775-a60b-440f-8922-bcabb800d160</TermId>
-        </TermInfo>
-      </Terms>
-    </SecurityClassificationTaxHTField0>
-    <b24f2fe35fb64520b1c59370a70a6f75 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b24f2fe35fb64520b1c59370a70a6f75>
-    <j094805c78b9410e96b3d80bc016816e xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j094805c78b9410e96b3d80bc016816e>
-    <ac06ece2d9de49a9bac66310ae7da85a xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ac06ece2d9de49a9bac66310ae7da85a>
-    <Document_x0020_status xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">Draft</Document_x0020_status>
-    <Comments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">3b0f3da0-511b-4702-97dc-cca785e63de4</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
-      <Url>http://team-2.statoil.com/sites/ts-40800/ehf/_layouts/DocIdRedir.aspx?ID=3b0f3da0-511b-4702-97dc-cca785e63de4</Url>
-      <Description>3b0f3da0-511b-4702-97dc-cca785e63de4</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="cda95b1f-d928-4d6d-948e-61bff6dae232" ContentTypeId="0x010100F7AC974578254811A4E2A32DB0F95ACD0B" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27366,30 +27205,6 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="cda95b1f-d928-4d6d-948e-61bff6dae232" ContentTypeId="0x010100F7AC974578254811A4E2A32DB0F95ACD0B" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Blank Document (UK)" ma:contentTypeID="0x010100F7AC974578254811A4E2A32DB0F95ACD0B003F123539AC353048B0F9BDA517702B40" ma:contentTypeVersion="29" ma:contentTypeDescription="Create a new blank document." ma:contentTypeScope="" ma:versionID="1f3f1659347714ad313d65052f76e14b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b17ea744-38d1-4a71-9f69-726aa276fcfa" xmlns:ns3="7c8a159f-e4cd-471f-8059-5c894001186d" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c79c280ba546d6849a9b0cf75e6a8afc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27715,15 +27530,245 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ob1fdaeeda6c434590f2918ca466ab10 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ob1fdaeeda6c434590f2918ca466ab10>
+    <n2a89e95a29b415a827aea651eb32be1 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n2a89e95a29b415a827aea651eb32be1>
+    <TaxCatchAll xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>22</Value>
+    </TaxCatchAll>
+    <ProcessTaxHTField0 xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Information technology (IT)</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6a6ed3c2-b324-4ded-87ce-463728624a83</TermId>
+        </TermInfo>
+      </Terms>
+    </ProcessTaxHTField0>
+    <i2fbc63eca174c1499eb29b04cf76753 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </i2fbc63eca174c1499eb29b04cf76753>
+    <e5947b8adb9444e9a52e245203a9e01a xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e5947b8adb9444e9a52e245203a9e01a>
+    <m3f60fa83b54468da996bbc7475e2e04 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m3f60fa83b54468da996bbc7475e2e04>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <OrganisationTaxHTField0 xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CFO GBS IT ES SUPPLY CHAIN PROCUREMENT (IT ES SCP)</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0841e8c2-53a9-4d81-8b39-68d7dd3a4d6e</TermId>
+        </TermInfo>
+      </Terms>
+    </OrganisationTaxHTField0>
+    <SecurityClassificationTaxHTField0 xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Open</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">61f5f775-a60b-440f-8922-bcabb800d160</TermId>
+        </TermInfo>
+      </Terms>
+    </SecurityClassificationTaxHTField0>
+    <b24f2fe35fb64520b1c59370a70a6f75 xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b24f2fe35fb64520b1c59370a70a6f75>
+    <j094805c78b9410e96b3d80bc016816e xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j094805c78b9410e96b3d80bc016816e>
+    <ac06ece2d9de49a9bac66310ae7da85a xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ac06ece2d9de49a9bac66310ae7da85a>
+    <Document_x0020_status xmlns="7c8a159f-e4cd-471f-8059-5c894001186d">Draft</Document_x0020_status>
+    <Comments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">3b0f3da0-511b-4702-97dc-cca785e63de4</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="b17ea744-38d1-4a71-9f69-726aa276fcfa">
+      <Url>http://team-2.statoil.com/sites/ts-40800/ehf/_layouts/DocIdRedir.aspx?ID=3b0f3da0-511b-4702-97dc-cca785e63de4</Url>
+      <Description>3b0f3da0-511b-4702-97dc-cca785e63de4</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>101</SequenceNumber>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>102</SequenceNumber>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>103</SequenceNumber>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>104</SequenceNumber>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>105</SequenceNumber>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>PolicyForHeaderAndFooter</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Ncas.Collaboration.CustomPolicy, Version=1.0.0.0, Culture=neutral, PublicKeyToken=adb52bf0495cf7ab</Assembly>
+    <Class> Ncas.Collaboration.CustomPolicy.CheckInPolicy.ApplyPolicyToDocument</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>PolicyForHeaderAndFooter</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Ncas.Collaboration.CustomPolicy, Version=1.0.0.0, Culture=neutral, PublicKeyToken=adb52bf0495cf7ab</Assembly>
+    <Class> Ncas.Collaboration.CustomPolicy.CheckInPolicy.ApplyPolicyToDocument</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5C30BB-5E6A-4F4A-B3B2-10F40B7461D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EC6253E-D412-4DEE-B117-E787D739F0B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC362EA-5FE1-4744-A081-802C304F2BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9765A3E-2275-4328-8828-597EB9560CF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B11D72-556F-44CE-8BD0-E64AFE9247C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="b17ea744-38d1-4a71-9f69-726aa276fcfa"/>
+    <ds:schemaRef ds:uri="7c8a159f-e4cd-471f-8059-5c894001186d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB5A321-C7B8-4E44-8747-F3AD086A887C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -27742,55 +27787,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9765A3E-2275-4328-8828-597EB9560CF9}">
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5C30BB-5E6A-4F4A-B3B2-10F40B7461D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC362EA-5FE1-4744-A081-802C304F2BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EC6253E-D412-4DEE-B117-E787D739F0B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A730D9F-357B-448A-BE28-3D85E18431E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B11D72-556F-44CE-8BD0-E64AFE9247C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="b17ea744-38d1-4a71-9f69-726aa276fcfa"/>
-    <ds:schemaRef ds:uri="7c8a159f-e4cd-471f-8059-5c894001186d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>